--- a/Data/EC/NIT-9007292137.xlsx
+++ b/Data/EC/NIT-9007292137.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB7A7B0A-8A09-4CDC-892B-3F5CCAD3158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{737F432B-F522-4361-B90E-A381C42280D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{877435E0-C79A-4428-A60B-3F7EC2BE7A5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3EBBBC8-5455-4965-9087-97E7F4498D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,118 +71,112 @@
     <t>ROBERTO CARLOS SOTO ROMERO</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1143363294</t>
+  </si>
+  <si>
+    <t>BRAYAN JOSE OROZCO VELASQUEZ</t>
+  </si>
+  <si>
     <t>1703</t>
   </si>
   <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1143363294</t>
-  </si>
-  <si>
-    <t>BRAYAN JOSE OROZCO VELASQUEZ</t>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>19620599</t>
+  </si>
+  <si>
+    <t>TOMAS ROMERO VALDES</t>
+  </si>
+  <si>
+    <t>1049937491</t>
+  </si>
+  <si>
+    <t>DANEIS SANDOVAL SANMARTIN</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
   </si>
   <si>
     <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>78730014</t>
-  </si>
-  <si>
-    <t>ELIAS MANUEL GARCES VIDAL</t>
-  </si>
-  <si>
-    <t>19620599</t>
-  </si>
-  <si>
-    <t>TOMAS ROMERO VALDES</t>
-  </si>
-  <si>
-    <t>1049937491</t>
-  </si>
-  <si>
-    <t>DANEIS SANDOVAL SANMARTIN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -281,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -294,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -496,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA093087-134C-85E0-F733-FF7D6C6D316E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D48E82-B0ED-13A4-A840-7235805E9D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AA9849-C174-45F5-A257-FC1FF840A480}">
-  <dimension ref="B2:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56125343-5020-4235-989C-6D00907A567A}">
+  <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -972,7 +966,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +1011,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1049,12 +1043,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1473731</v>
+        <v>1301861</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1065,14 +1059,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
         <v>30</v>
@@ -1102,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,7 +1122,7 @@
         <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1139,19 +1133,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1162,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>15625</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1185,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1208,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1231,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1254,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1277,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1300,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1323,19 +1317,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1346,19 +1340,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1369,19 +1363,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1392,19 +1386,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1415,19 +1409,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1438,19 +1432,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1461,19 +1455,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1484,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1507,19 +1501,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1530,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1553,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1576,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1599,19 +1593,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1622,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1645,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1668,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1691,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1714,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1737,19 +1731,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1760,19 +1754,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1783,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1806,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1829,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1852,16 +1846,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F48" s="18">
-        <v>15625</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1875,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1898,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1921,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1944,19 +1938,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1967,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1990,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F54" s="18">
-        <v>16562</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2013,13 +2007,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2036,19 +2030,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2059,19 +2053,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F57" s="18">
-        <v>33125</v>
+        <v>15625</v>
       </c>
       <c r="G57" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2082,16 +2076,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F58" s="18">
-        <v>33125</v>
+        <v>16562</v>
       </c>
       <c r="G58" s="18">
         <v>828116</v>
@@ -2101,194 +2095,56 @@
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="17" t="s">
+      <c r="B59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G59" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="18">
+      <c r="F59" s="24">
         <v>15625</v>
       </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="G59" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="B64" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="H70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
+      <c r="B65" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="H71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
